--- a/【課題管理表】SAKEプロジェクト課題管理.xlsx
+++ b/【課題管理表】SAKEプロジェクト課題管理.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="258">
   <si>
     <t xml:space="preserve">課題管理表（SAKEプロジェクト課題管理）</t>
   </si>
@@ -74,88 +74,112 @@
     <t xml:space="preserve">備 考</t>
   </si>
   <si>
+    <t xml:space="preserve">菅原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本設計書の画面名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p29の「7-1-1-2」画面名称が「買い物かご画面」のみだと関連商品表示なのがわかりづらい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「買い物かご画面（関連商品表示）」に変更</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィルターのコメントアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインチェックフィルターをコメントアウトしないと、画面の確認時にログイン画面に遷移してしまう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントアウトすることでフィルターチェック機能を無効化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開発終了後のコメントアウト外し忘れに注意。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error.htmlの名称変更</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名前を変更しないとエラーの内容が全て「メンテナンス中です」になってしまう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error.htmlの名前を変更することで、エラー内容を表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称の変更し忘れ注意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">区分</t>
+  </si>
+  <si>
     <t xml:space="preserve">記入者A</t>
   </si>
   <si>
-    <t xml:space="preserve">○○○○○○○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※最初に行No1,No2の内容をすべて消してさい</t>
-  </si>
-  <si>
     <t xml:space="preserve">不具合</t>
   </si>
   <si>
-    <t xml:space="preserve">○○○○○○○○○○○○○</t>
-  </si>
-  <si>
     <t xml:space="preserve">担当者A</t>
   </si>
   <si>
-    <t xml:space="preserve">完了</t>
+    <t xml:space="preserve">未着手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※リストは空白を開けずに、上詰めで記載してください</t>
   </si>
   <si>
     <t xml:space="preserve">記入者B</t>
   </si>
   <si>
-    <t xml:space="preserve">△△△△△△△</t>
-  </si>
-  <si>
-    <t xml:space="preserve">△△△△△△△△△△△△△</t>
-  </si>
-  <si>
     <t xml:space="preserve">検討漏れ</t>
   </si>
   <si>
+    <t xml:space="preserve">担当者B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">対応中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記入者C</t>
+  </si>
+  <si>
     <t xml:space="preserve">担当者C</t>
   </si>
   <si>
+    <t xml:space="preserve">確認中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記入者D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要望</t>
+  </si>
+  <si>
+    <t xml:space="preserve">担当者D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記入者E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">担当者E</t>
+  </si>
+  <si>
     <t xml:space="preserve">対応不要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.28の課題を実施すると対応不要となる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">区分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未着手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※リストは空白を開けずに、上詰めで記載してください</t>
-  </si>
-  <si>
-    <t xml:space="preserve">担当者B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">対応中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記入者C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記入者D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要望</t>
-  </si>
-  <si>
-    <t xml:space="preserve">担当者D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記入者E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">担当者E</t>
   </si>
   <si>
     <t xml:space="preserve">■１０年日記プラス</t>
@@ -1258,9 +1282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>295200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,7 +1298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="436680" y="9458280"/>
-          <a:ext cx="1142640" cy="1142640"/>
+          <a:ext cx="1142280" cy="1142280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,11 +1321,11 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>44287</v>
+        <v>44994</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
@@ -1391,10 +1415,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>44292</v>
+        <v>44995</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>19</v>
@@ -1403,10 +1427,10 @@
         <v>20</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>44291</v>
+        <v>44995</v>
       </c>
       <c r="L3" s="6" t="n">
-        <v>44291</v>
+        <v>44995</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>21</v>
@@ -1419,43 +1443,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>44287</v>
+        <v>44995</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>44294</v>
+        <v>44995</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>44296</v>
+        <v>44995</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>44295</v>
+        <v>44995</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,19 +1487,45 @@
         <f aca="false">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="6" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>44995</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>44995</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>44995</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -3322,14 +3372,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:N102"/>
-  <conditionalFormatting sqref="A3:N102">
+  <conditionalFormatting sqref="A6:N102 A3:G102">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>$M3="完了"</formula>
+      <formula>$M4="完了"</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>$M3="対応不要"</formula>
+      <formula>$M4="対応不要"</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:N5">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$M4="完了"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>$M4="対応不要"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3400,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3414,71 +3475,71 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E2" s="14" t="n">
         <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E3" s="17" t="n">
         <v>4</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4" s="17" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>21</v>
@@ -3486,19 +3547,19 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E6" s="17" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3775,13 +3836,13 @@
   <sheetData>
     <row r="1" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,13 +3851,13 @@
     <row r="4" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3866,7 @@
     <row r="7" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,12 +3874,12 @@
     </row>
     <row r="9" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" s="22" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,85 +3887,85 @@
     </row>
     <row r="12" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="22" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,12 +3973,12 @@
     </row>
     <row r="31" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" s="22" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="23" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,74 +3986,74 @@
     </row>
     <row r="34" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="22" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,12 +4061,12 @@
     </row>
     <row r="51" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" s="22" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4074,7 @@
     </row>
     <row r="54" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4025,17 +4086,17 @@
     <row r="61" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" s="22" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4076,7 +4137,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,747 +4145,747 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="22" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="23" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="23" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="23" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="23" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="22" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="23" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="23" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="22" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="23" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="23" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="23" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="22" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="23" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="23" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="22" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="23" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="22" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="22" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="23" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="22" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="23" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="22" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="23" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="22" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="23" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="22" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="23" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="23" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="22" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="23" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="22" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="23" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="22" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="23" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="22" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="22" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="23" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="22" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="23" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="23" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="22" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="23" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="22" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="23" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="22" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="23" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="22" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="23" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="22" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="22" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="23" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="22" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="23" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="23" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="23" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="22" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="23" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="22" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="23" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="22" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="23" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="22" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="23" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="22" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="23" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="22" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="23" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="22" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="23" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="22" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="23" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="22" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="22" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="23" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="22" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="23" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="22" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="23" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="22" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="23" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="22" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="22" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="22" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="23" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4986,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,13 +4995,13 @@
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21"/>
       <c r="C4" s="23" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,52 +5009,52 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="22" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
